--- a/ExcelFiles/OutputExcel.xlsx
+++ b/ExcelFiles/OutputExcel.xlsx
@@ -16,6 +16,7 @@
     <sheet name="t" sheetId="1" r:id="rId1"/>
     <sheet name="AppName" r:id="rId5" sheetId="2"/>
     <sheet name="AppName1" r:id="rId6" sheetId="3"/>
+    <sheet name="AppName2" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>Account
 Search
@@ -408,4 +409,22 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ExcelFiles/OutputExcel.xlsx
+++ b/ExcelFiles/OutputExcel.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Class\WorkSpace\Framework\GitProject\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\GitProject\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCAA02F-B1B8-4C3E-9D33-A7727F5EE863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C41333F-6936-452F-A90E-46754C097D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t" sheetId="1" r:id="rId1"/>
-    <sheet name="AppName" r:id="rId5" sheetId="2"/>
-    <sheet name="AppName1" r:id="rId6" sheetId="3"/>
-    <sheet name="AppName2" r:id="rId7" sheetId="4"/>
+    <sheet name="AppName" sheetId="2" r:id="rId2"/>
+    <sheet name="AppName1" sheetId="3" r:id="rId3"/>
+    <sheet name="AppName2" sheetId="4" r:id="rId4"/>
+    <sheet name="AppName3" sheetId="5" r:id="rId5"/>
+    <sheet name="AppName5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>Account
 Search
@@ -51,7 +53,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,66 +369,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelFiles/OutputExcel.xlsx
+++ b/ExcelFiles/OutputExcel.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\GitProject\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Class\WorkSpace\Framework\GitProject\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C41333F-6936-452F-A90E-46754C097D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE3071-3ACB-4B05-9A11-65D71A3AD39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t" sheetId="1" r:id="rId1"/>
     <sheet name="AppName" sheetId="2" r:id="rId2"/>
-    <sheet name="AppName1" sheetId="3" r:id="rId3"/>
-    <sheet name="AppName2" sheetId="4" r:id="rId4"/>
-    <sheet name="AppName3" sheetId="5" r:id="rId5"/>
-    <sheet name="AppName5" sheetId="6" r:id="rId6"/>
+    <sheet name="AppName5" sheetId="6" r:id="rId3"/>
+    <sheet name="AppName1" r:id="rId7" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Account
 Search
@@ -48,11 +46,60 @@
 Photos
 Shopping</t>
   </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>Photos</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +420,7 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -385,9 +432,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,68 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,4 +460,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ExcelFiles/OutputExcel.xlsx
+++ b/ExcelFiles/OutputExcel.xlsx
@@ -17,6 +17,7 @@
     <sheet name="AppName" sheetId="2" r:id="rId2"/>
     <sheet name="AppName5" sheetId="6" r:id="rId3"/>
     <sheet name="AppName1" r:id="rId7" sheetId="7"/>
+    <sheet name="AppName8" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Account
 Search
@@ -553,4 +554,97 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>